--- a/coadm-05-2024.xlsx
+++ b/coadm-05-2024.xlsx
@@ -1718,13 +1718,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1787,10 +1787,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,7 +2500,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
